--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
   <si>
     <t>土地坐落</t>
   </si>
@@ -258,6 +258,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t>聯強</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-28</t>
@@ -1644,13 +1650,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1678,13 +1684,16 @@
       <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1702,21 +1711,24 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1734,21 +1746,24 @@
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1766,21 +1781,24 @@
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1798,21 +1816,24 @@
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1830,21 +1851,24 @@
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1862,21 +1886,24 @@
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1894,21 +1921,24 @@
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1926,21 +1956,24 @@
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1958,21 +1991,24 @@
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1990,12 +2026,15 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>1701</v>
       </c>
     </row>
@@ -2014,22 +2053,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -2040,13 +2079,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2066,13 +2105,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2092,13 +2131,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2118,13 +2157,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2144,13 +2183,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2180,22 +2219,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2203,14 +2242,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2220,22 +2259,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2253,16 +2292,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2270,10 +2309,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2287,10 +2326,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2317,19 +2356,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2337,22 +2376,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="142">
   <si>
     <t>土地坐落</t>
   </si>
@@ -261,6 +261,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -270,6 +273,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鼎元</t>
   </si>
   <si>
@@ -303,7 +312,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>tmpf41</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1650,13 +1665,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1687,13 +1702,22 @@
       <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1711,24 +1735,33 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1746,24 +1779,33 @@
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1781,24 +1823,33 @@
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1816,24 +1867,33 @@
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1851,24 +1911,33 @@
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1886,24 +1955,33 @@
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1921,24 +1999,33 @@
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1956,24 +2043,33 @@
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1991,24 +2087,33 @@
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2026,16 +2131,25 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1701</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2053,22 +2167,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -2079,13 +2193,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2105,13 +2219,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2131,13 +2245,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2157,13 +2271,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2183,13 +2297,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2219,22 +2333,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2242,14 +2356,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2259,22 +2373,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2292,16 +2406,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2309,10 +2423,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2326,10 +2440,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2356,19 +2470,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2376,22 +2490,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,20 +22,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="142">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="144">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市清溪段13080004地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市清溪段13080015地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08830000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08910000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08920000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08930000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08930001地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市前進段04830000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市前進段05100000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市清溪段01400000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>9分之1</t>
+  </si>
+  <si>
+    <t>9分之3</t>
+  </si>
+  <si>
+    <t>王進士</t>
+  </si>
+  <si>
+    <t>周麗容</t>
+  </si>
+  <si>
+    <t>王〇聿</t>
+  </si>
+  <si>
+    <t>王◦聿</t>
+  </si>
+  <si>
+    <t>72年10月08日</t>
+  </si>
+  <si>
+    <t>73年04月03日</t>
+  </si>
+  <si>
+    <t>92年09月09日</t>
+  </si>
+  <si>
+    <t>96年09与14日</t>
+  </si>
+  <si>
+    <t>96年03月29日</t>
+  </si>
+  <si>
+    <t>100年08月12曰</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>tmpf41</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>標示</t>
+  </si>
+  <si>
+    <t>面積（平方</t>
+  </si>
+  <si>
+    <t>權利範圍（</t>
   </si>
   <si>
     <t>所有權人</t>
   </si>
   <si>
+    <t>登記（取得</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段00285000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段01742000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市清溪段00590000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市清溪段01308004建號</t>
+  </si>
+  <si>
+    <t>100年09月09曰</t>
+  </si>
+  <si>
+    <t>(重建）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>登記（取得)時間</t>
   </si>
   <si>
@@ -45,145 +216,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市清溪段1308-0004 地號 ，</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市清溪段1308-0015 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0883-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0891 -0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0892-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0893-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0893-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市前進段0483-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市前進段0510-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市清溪段0140-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>9分之1</t>
-  </si>
-  <si>
-    <t>9分之3</t>
-  </si>
-  <si>
-    <t>王進士</t>
-  </si>
-  <si>
-    <t>周麗容</t>
-  </si>
-  <si>
-    <t>王〇聿</t>
-  </si>
-  <si>
-    <t>王◦聿</t>
-  </si>
-  <si>
-    <t>72年10月 08日</t>
-  </si>
-  <si>
-    <t>73年04月 03日</t>
-  </si>
-  <si>
-    <t>92年09月 09日</t>
-  </si>
-  <si>
-    <t>96年09与 14日</t>
-  </si>
-  <si>
-    <t>96年03月 29日</t>
-  </si>
-  <si>
-    <t>100 年 08 月12曰</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標示</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍（</t>
-  </si>
-  <si>
-    <t>登記（取得</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段00285-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段01742-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市清溪段00590-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市清溪段01308-004 建號</t>
-  </si>
-  <si>
-    <t>100 年 09 月09曰</t>
-  </si>
-  <si>
-    <t>(重建）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>歐普 C0RA1.4</t>
+    <t>歐普C0RA1.4</t>
   </si>
   <si>
     <t>曰本馬自達MPV</t>
   </si>
   <si>
-    <t>88年04月 13曰</t>
-  </si>
-  <si>
-    <t>95年01月 16日</t>
-  </si>
-  <si>
-    <t>cco-sfe 貝賣</t>
+    <t>88年04月13曰</t>
+  </si>
+  <si>
+    <t>95年01月16日</t>
+  </si>
+  <si>
+    <t>ccosfe貝賣</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -201,25 +246,25 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行東園分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行屏寒分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分 行</t>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行屏寒分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
   </si>
   <si>
     <t>臺灣銀行屏東分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司屏 東市林森路郵局</t>
+    <t>中華郵政股份有限公司屏東市林森路郵局</t>
   </si>
   <si>
     <t>第一商業銀行屏東分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行屏東分 行</t>
+    <t>台新國際商業銀行屏東分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -228,9 +273,6 @@
     <t>綜合存款</t>
   </si>
   <si>
-    <t>活期、存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -240,12 +282,6 @@
     <t>干谁十</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -258,27 +294,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鼎元</t>
   </si>
   <si>
@@ -312,15 +327,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-28</t>
-  </si>
-  <si>
-    <t>tmpf41</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -336,13 +342,13 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>摩根富林明龍揚 基金</t>
-  </si>
-  <si>
-    <t>摩根富林明全球 a基金</t>
-  </si>
-  <si>
-    <t>霸菱全球新興市 場基金</t>
+    <t>摩根富林明龍揚基金</t>
+  </si>
+  <si>
+    <t>摩根富林明全球a基金</t>
+  </si>
+  <si>
+    <t>霸菱全球新興市場基金</t>
   </si>
   <si>
     <t>貝萊德世界能源</t>
@@ -351,10 +357,10 @@
     <t>富達亞高收</t>
   </si>
   <si>
-    <t>屏東市林毐郵 局</t>
-  </si>
-  <si>
-    <t>屏東市林森郵 局</t>
+    <t>屏東市林毐郵局</t>
+  </si>
+  <si>
+    <t>屏東市林森郵局</t>
   </si>
   <si>
     <t>第一銀行</t>
@@ -375,22 +381,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額••新臺幣 元）</t>
+    <t>t額新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -441,10 +447,10 @@
     <t>住宅貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行屏東分行 屏東縣屏東市逢甲路</t>
-  </si>
-  <si>
-    <t>100年10月 07日</t>
+    <t>臺灣土地銀行屏東分行屏東縣屏東市逢甲路</t>
+  </si>
+  <si>
+    <t>100年10月07日</t>
   </si>
   <si>
     <t>改建房屋</t>
@@ -806,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,343 +840,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>287</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>587</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>73048</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
         <v>53457</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1946</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2">
         <v>86488</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>587</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
         <v>549256</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>194</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
         <v>181526</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>1946</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2">
         <v>1820872</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1188,25 +1488,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1214,25 +1514,25 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>30.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1240,22 +1540,22 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>178.76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
         <v>2581400</v>
@@ -1266,25 +1566,25 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>83.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1292,25 +1592,25 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>105.4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1328,22 +1628,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1351,19 +1651,19 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
@@ -1374,19 +1674,19 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>2967</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>1250000</v>
@@ -1407,22 +1707,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1430,16 +1730,16 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1451,16 +1751,16 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1472,16 +1772,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1493,16 +1793,16 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1514,16 +1814,16 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1535,16 +1835,16 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1556,16 +1856,16 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1577,16 +1877,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1598,16 +1898,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1619,16 +1919,16 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1640,16 +1940,16 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
         <v>20328.17</v>
@@ -1673,43 +1973,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1717,10 +2017,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>10000</v>
@@ -1729,28 +2029,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2">
         <v>1701</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>80</v>
@@ -1761,10 +2061,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>5499</v>
@@ -1773,28 +2073,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2">
         <v>1701</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
         <v>81</v>
@@ -1805,10 +2105,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>2046</v>
@@ -1817,28 +2117,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2">
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2">
         <v>1701</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>82</v>
@@ -1849,10 +2149,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>4000</v>
@@ -1861,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2">
         <v>1701</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>83</v>
@@ -1893,10 +2193,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>5250</v>
@@ -1905,28 +2205,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2">
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2">
         <v>1701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
         <v>84</v>
@@ -1937,10 +2237,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -1949,28 +2249,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2">
         <v>1701</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
         <v>85</v>
@@ -1981,10 +2281,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>11025</v>
@@ -1993,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2">
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2">
         <v>1701</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>86</v>
@@ -2025,10 +2325,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>10000</v>
@@ -2037,28 +2337,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2">
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L9" s="2">
         <v>1701</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2">
         <v>87</v>
@@ -2069,10 +2369,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>10813</v>
@@ -2081,28 +2381,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L10" s="2">
         <v>1701</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2">
         <v>88</v>
@@ -2113,10 +2413,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
@@ -2125,28 +2425,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L11" s="2">
         <v>1701</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
         <v>89</v>
@@ -2167,25 +2467,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2193,13 +2493,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2208,7 +2508,7 @@
         <v>17.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2">
         <v>70502</v>
@@ -2219,13 +2519,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2234,7 +2534,7 @@
         <v>9.68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2">
         <v>75566</v>
@@ -2245,13 +2545,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2260,7 +2560,7 @@
         <v>33.7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>342305</v>
@@ -2271,13 +2571,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2286,7 +2586,7 @@
         <v>25.78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>359451</v>
@@ -2297,13 +2597,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2312,7 +2612,7 @@
         <v>31.87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2">
         <v>19801</v>
@@ -2333,22 +2633,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2356,14 +2656,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2373,22 +2673,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2406,16 +2706,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2423,13 +2723,13 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>345281</v>
@@ -2440,13 +2740,13 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
@@ -2467,22 +2767,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2490,22 +2790,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -183,13 +183,16 @@
     <t>(重建）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>歐普C0RA1.4</t>
   </si>
   <si>
+    <t>曰本馬自達MPV</t>
+  </si>
+  <si>
     <t>88年04月13曰</t>
-  </si>
-  <si>
-    <t>曰本馬自達MPV</t>
   </si>
   <si>
     <t>95年01月16日</t>
@@ -1734,38 +1737,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1">
-        <v>1388</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
@@ -1774,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
@@ -1782,8 +1806,29 @@
       <c r="G2" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>48</v>
       </c>
@@ -1797,13 +1842,34 @@
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>1250000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1821,13 +1887,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1842,13 +1908,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -1863,13 +1929,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -1884,16 +1950,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1905,13 +1971,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -1926,13 +1992,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -1947,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1968,13 +2034,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1989,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2010,13 +2076,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2031,13 +2097,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -2052,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -2091,13 +2157,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2129,7 +2195,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2141,13 +2207,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -2173,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2185,13 +2251,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>44</v>
@@ -2217,7 +2283,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2229,13 +2295,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -2261,7 +2327,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2273,13 +2339,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>44</v>
@@ -2305,7 +2371,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2317,13 +2383,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>44</v>
@@ -2349,7 +2415,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2361,13 +2427,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>44</v>
@@ -2393,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -2405,13 +2471,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>44</v>
@@ -2437,7 +2503,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -2449,13 +2515,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>44</v>
@@ -2481,7 +2547,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -2493,13 +2559,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>44</v>
@@ -2525,7 +2591,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -2537,13 +2603,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>
@@ -2579,13 +2645,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2594,7 +2660,7 @@
         <v>17.95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1">
         <v>70502</v>
@@ -2605,13 +2671,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2620,7 +2686,7 @@
         <v>17.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>70502</v>
@@ -2631,13 +2697,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2646,7 +2712,7 @@
         <v>9.68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2">
         <v>75566</v>
@@ -2657,13 +2723,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2672,7 +2738,7 @@
         <v>33.7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2">
         <v>342305</v>
@@ -2683,13 +2749,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2698,7 +2764,7 @@
         <v>25.78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
         <v>359451</v>
@@ -2709,13 +2775,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2724,7 +2790,7 @@
         <v>31.87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2">
         <v>19801</v>
@@ -2745,14 +2811,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2762,16 +2828,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2779,22 +2845,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2812,10 +2878,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2829,10 +2895,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2846,10 +2912,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2873,22 +2939,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>594313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2896,22 +2962,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,9 @@
     <t>(重建）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
   </si>
   <si>
     <t>ccosfe貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣新光商業銀行東園分行</t>
@@ -1544,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -1597,7 +1603,7 @@
         <v>2581400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>44</v>
@@ -1650,7 +1656,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
@@ -1703,7 +1709,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>44</v>
@@ -1748,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1789,7 +1795,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
@@ -1798,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
@@ -1807,7 +1813,7 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -1833,7 +1839,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>2967</v>
@@ -1842,16 +1848,16 @@
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>1250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>44</v>
@@ -1887,13 +1893,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1908,13 +1914,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -1929,13 +1935,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -1950,16 +1956,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1971,13 +1977,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -1992,13 +1998,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -2013,13 +2019,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2034,13 +2040,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2055,13 +2061,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2076,13 +2082,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2097,13 +2103,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -2118,13 +2124,13 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -2157,13 +2163,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2195,7 +2201,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2207,13 +2213,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -2239,7 +2245,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2251,13 +2257,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>44</v>
@@ -2283,7 +2289,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2295,13 +2301,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -2327,7 +2333,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2339,13 +2345,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>44</v>
@@ -2371,7 +2377,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2383,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>44</v>
@@ -2415,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2427,13 +2433,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>44</v>
@@ -2459,7 +2465,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -2471,13 +2477,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>44</v>
@@ -2503,7 +2509,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -2515,13 +2521,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>44</v>
@@ -2547,7 +2553,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -2559,13 +2565,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>44</v>
@@ -2591,7 +2597,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -2603,13 +2609,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>
@@ -2645,13 +2651,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2660,7 +2666,7 @@
         <v>17.95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1">
         <v>70502</v>
@@ -2671,13 +2677,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2686,7 +2692,7 @@
         <v>17.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>70502</v>
@@ -2697,13 +2703,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2712,7 +2718,7 @@
         <v>9.68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2">
         <v>75566</v>
@@ -2723,13 +2729,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2738,7 +2744,7 @@
         <v>33.7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>342305</v>
@@ -2749,13 +2755,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2764,7 +2770,7 @@
         <v>25.78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2">
         <v>359451</v>
@@ -2775,13 +2781,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2790,7 +2796,7 @@
         <v>31.87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>19801</v>
@@ -2811,14 +2817,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2828,16 +2834,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2845,22 +2851,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2878,10 +2884,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2895,10 +2901,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2912,10 +2918,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2939,22 +2945,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1">
         <v>594313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2962,22 +2968,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -207,49 +207,58 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行東園分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行屏寒分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行屏東分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司屏東市林森路郵局</t>
+  </si>
+  <si>
+    <t>第一商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行屏東分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行屏寒分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行屏東分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司屏東市林森路郵局</t>
-  </si>
-  <si>
-    <t>第一商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>干谁十</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>鼎元</t>
@@ -1885,13 +1894,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1902,244 +1911,482 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>291177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>291177</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>291177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>611383</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
         <v>63</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>611383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2">
         <v>210165</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>157327</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>213211</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>314588</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>111794</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>62579</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>10676</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>3158066</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>20328.17</v>
-      </c>
-      <c r="G12" s="2">
         <v>621311.81</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2163,13 +2410,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2201,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2213,13 +2460,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -2245,7 +2492,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2257,13 +2504,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>54990</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>44</v>
@@ -2289,7 +2536,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2301,13 +2548,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
         <v>20460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -2333,7 +2580,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2345,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>44</v>
@@ -2377,7 +2624,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2389,13 +2636,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
         <v>52500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>44</v>
@@ -2421,7 +2668,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2433,13 +2680,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>44</v>
@@ -2465,7 +2712,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -2477,13 +2724,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>110250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>44</v>
@@ -2509,7 +2756,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -2521,13 +2768,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>100000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>44</v>
@@ -2553,7 +2800,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -2565,13 +2812,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2">
         <v>108130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>44</v>
@@ -2597,7 +2844,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -2609,13 +2856,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>
@@ -2651,13 +2898,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2666,7 +2913,7 @@
         <v>17.95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1">
         <v>70502</v>
@@ -2677,13 +2924,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2692,7 +2939,7 @@
         <v>17.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2">
         <v>70502</v>
@@ -2703,13 +2950,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2718,7 +2965,7 @@
         <v>9.68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2">
         <v>75566</v>
@@ -2729,13 +2976,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2744,7 +2991,7 @@
         <v>33.7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>342305</v>
@@ -2755,13 +3002,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -2770,7 +3017,7 @@
         <v>25.78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>359451</v>
@@ -2781,13 +3028,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -2796,7 +3043,7 @@
         <v>31.87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>19801</v>
@@ -2817,14 +3064,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2834,16 +3081,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2851,22 +3098,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2884,10 +3131,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2901,10 +3148,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2918,10 +3165,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2945,22 +3192,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1">
         <v>594313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2968,22 +3215,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -13,16 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -294,55 +293,34 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>摩根富林明龍揚基金</t>
   </si>
   <si>
+    <t>摩根富林明全球a基金</t>
+  </si>
+  <si>
+    <t>霸菱全球新興市場基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界能源</t>
+  </si>
+  <si>
+    <t>富達亞高收</t>
+  </si>
+  <si>
     <t>屏東市林毐郵局</t>
   </si>
   <si>
-    <t>摩根富林明全球a基金</t>
-  </si>
-  <si>
-    <t>霸菱全球新興市場基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界能源</t>
-  </si>
-  <si>
-    <t>富達亞高收</t>
-  </si>
-  <si>
     <t>屏東市林森郵局</t>
   </si>
   <si>
     <t>第一銀行</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>t額新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -2890,47 +2868,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3927.7</v>
-      </c>
-      <c r="F1" s="1">
-        <v>17.95</v>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1">
-        <v>70502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2944,8 +2943,29 @@
       <c r="H2" s="2">
         <v>70502</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2956,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2970,8 +2990,29 @@
       <c r="H3" s="2">
         <v>75566</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -2982,7 +3023,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>313.791</v>
@@ -2996,8 +3037,29 @@
       <c r="H4" s="2">
         <v>342305</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>102</v>
       </c>
@@ -3008,7 +3070,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>454.17</v>
@@ -3022,8 +3084,29 @@
       <c r="H5" s="2">
         <v>359451</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -3034,7 +3117,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>621.3</v>
@@ -3047,6 +3130,27 @@
       </c>
       <c r="H6" s="2">
         <v>19801</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3055,73 +3159,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3131,10 +3168,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -3148,10 +3185,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -3165,10 +3202,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -3182,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3192,22 +3229,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>594313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3215,22 +3252,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
+++ b/legislator/property/output/normal/王進士_2011-12-28_財產申報表_tmpf41.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -323,18 +323,30 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
     <t>超越變動額萬能壽險乙型</t>
   </si>
   <si>
-    <t>台灣銀行</t>
-  </si>
-  <si>
     <t>美麗人生萬能保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>住宅貸款</t>
   </si>
   <si>
@@ -345,6 +357,9 @@
   </si>
   <si>
     <t>改建房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3160,44 +3175,80 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1">
-        <v>345281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
-        <v>345281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>118</v>
       </c>
@@ -3205,13 +3256,31 @@
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2">
-        <v>2000000</v>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3221,53 +3290,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1">
-        <v>594313</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>594313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
